--- a/ComparisonData.xlsx
+++ b/ComparisonData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InspiredExam\LuanExamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C573B260-3A1E-410D-B5E6-6308D7B0C1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3342F247-0B42-46B7-A7D5-F8E689F4EFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-2175" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Computers</t>
   </si>
   <si>
-    <t>Desktop PC with DCRW</t>
-  </si>
-  <si>
     <t>Elite Desktop PC</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Electronics</t>
+  </si>
+  <si>
+    <t>Desktop PC with CDRW</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,13 +430,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>500</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>1350</v>
@@ -447,19 +447,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
